--- a/data/Gear_dimensions.xlsx
+++ b/data/Gear_dimensions.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Juliane/Desktop/ParaSpace/data/Non vérifiés/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Juliane/Library/CloudStorage/Dropbox/ParaSpace/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83EA3F10-4C1B-4440-B2EB-2EFE6A540125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9383A1D-8635-1047-87EA-EBEAEEE3E55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1320" windowWidth="27240" windowHeight="15140" xr2:uid="{B954982B-473F-1B4F-8C97-3E8F1A8E67BE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="35">
   <si>
     <t>NA</t>
   </si>
@@ -132,6 +132,15 @@
   </si>
   <si>
     <t>Opening (cm)</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
   </si>
 </sst>
 </file>
@@ -192,7 +201,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Bureau">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -230,7 +239,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Bureau">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -336,7 +345,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Bureau">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -489,7 +498,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -533,8 +542,8 @@
       <c r="D2" s="1">
         <v>84</v>
       </c>
-      <c r="E2" s="1">
-        <v>3</v>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -556,8 +565,8 @@
       <c r="D3" s="1">
         <v>170</v>
       </c>
-      <c r="E3" s="1">
-        <v>2</v>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>0</v>
@@ -694,8 +703,8 @@
       <c r="D9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
+      <c r="E9" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F9" s="1">
         <v>30</v>
@@ -717,8 +726,8 @@
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="1">
-        <v>1</v>
+      <c r="E10" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F10" s="1">
         <v>30</v>
@@ -809,8 +818,8 @@
       <c r="D14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="1">
-        <v>2</v>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="F14" s="1">
         <v>30</v>
@@ -924,8 +933,8 @@
       <c r="D19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E19" s="1">
-        <v>1</v>
+      <c r="E19" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F19" s="1">
         <v>30</v>
